--- a/data/position_analysis.xlsx
+++ b/data/position_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="63">
   <si>
     <t>调仓日期</t>
   </si>
@@ -37,7 +37,172 @@
     <t>fundingRate</t>
   </si>
   <si>
+    <t>ErrorReason</t>
+  </si>
+  <si>
     <t>Run_ID</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>RLCUSDT</t>
+  </si>
+  <si>
+    <t>DENTUSDT</t>
+  </si>
+  <si>
+    <t>ONGUSDT</t>
+  </si>
+  <si>
+    <t>SFPUSDT</t>
+  </si>
+  <si>
+    <t>LRCUSDT</t>
+  </si>
+  <si>
+    <t>SUNUSDT</t>
+  </si>
+  <si>
+    <t>SXPUSDT</t>
+  </si>
+  <si>
+    <t>ARKUSDT</t>
+  </si>
+  <si>
+    <t>CTKUSDT</t>
+  </si>
+  <si>
+    <t>AERGOUSDT</t>
+  </si>
+  <si>
+    <t>DFUSDT</t>
+  </si>
+  <si>
+    <t>BELUSDT</t>
+  </si>
+  <si>
+    <t>FILUSDT</t>
+  </si>
+  <si>
+    <t>XMRUSDT</t>
+  </si>
+  <si>
+    <t>FTTUSDT</t>
+  </si>
+  <si>
+    <t>XEMUSDT</t>
+  </si>
+  <si>
+    <t>STPTUSDT</t>
+  </si>
+  <si>
+    <t>BLZUSDT</t>
+  </si>
+  <si>
+    <t>BALUSDT</t>
+  </si>
+  <si>
+    <t>AMBUSDT</t>
+  </si>
+  <si>
+    <t>UNFIUSDT</t>
+  </si>
+  <si>
+    <t>FTMUSDT</t>
+  </si>
+  <si>
+    <t>STRAXUSDT</t>
+  </si>
+  <si>
+    <t>WAVESUSDT</t>
+  </si>
+  <si>
+    <t>BCHUSDT</t>
+  </si>
+  <si>
+    <t>MDTUSDT</t>
+  </si>
+  <si>
+    <t>SCUSDT</t>
+  </si>
+  <si>
+    <t>SNTUSDT</t>
+  </si>
+  <si>
+    <t>RENUSDT</t>
+  </si>
+  <si>
+    <t>LTCUSDT</t>
+  </si>
+  <si>
+    <t>交易对不可交易</t>
+  </si>
+  <si>
+    <t>黑名单过滤</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.55968 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.4666 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.522 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.483099999999999 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.52032 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.41869 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.53112 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.40452 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.536159999999999 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.40343 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.555840000000002 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.42741 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.54576 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.42632 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>2025-06-01_175903</t>
+  </si>
+  <si>
+    <t>2025-06-01_180901</t>
+  </si>
+  <si>
+    <t>2025-06-01_181939</t>
+  </si>
+  <si>
+    <t>2025-06-01_184918</t>
+  </si>
+  <si>
+    <t>2025-06-01_185030</t>
+  </si>
+  <si>
+    <t>2025-06-01_185931</t>
+  </si>
+  <si>
+    <t>2025-06-01_190115</t>
   </si>
 </sst>
 </file>
@@ -395,13 +560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,6 +590,4797 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D2">
+        <v>1.0721</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>12142</v>
+      </c>
+      <c r="D3">
+        <v>0.000771</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>0.19075</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>0.5323</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>0.09093999999999999</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>484</v>
+      </c>
+      <c r="D7">
+        <v>0.019305</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>50.1</v>
+      </c>
+      <c r="D8">
+        <v>0.1854</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>-24</v>
+      </c>
+      <c r="D9">
+        <v>0.3915</v>
+      </c>
+      <c r="E9">
+        <v>173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>171</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>170</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>-28</v>
+      </c>
+      <c r="D13">
+        <v>0.3352</v>
+      </c>
+      <c r="E13">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>167</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>166</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>-60</v>
+      </c>
+      <c r="D17">
+        <v>0.15796</v>
+      </c>
+      <c r="E17">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>162</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>161</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>-177</v>
+      </c>
+      <c r="D22">
+        <v>0.05053</v>
+      </c>
+      <c r="E22">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>-30</v>
+      </c>
+      <c r="D24">
+        <v>0.3154</v>
+      </c>
+      <c r="E24">
+        <v>158</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>157</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>156</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>154</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>-3.5</v>
+      </c>
+      <c r="D29">
+        <v>2.663</v>
+      </c>
+      <c r="E29">
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>152</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>-0.028</v>
+      </c>
+      <c r="D31">
+        <v>332.42</v>
+      </c>
+      <c r="E31">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D32">
+        <v>1.0721</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>12142</v>
+      </c>
+      <c r="D33">
+        <v>0.000771</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>0.19075</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>0.5323</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>103</v>
+      </c>
+      <c r="D36">
+        <v>0.09093999999999999</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>484</v>
+      </c>
+      <c r="D37">
+        <v>0.019305</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>50.1</v>
+      </c>
+      <c r="D38">
+        <v>0.1854</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>-24</v>
+      </c>
+      <c r="D39">
+        <v>0.3915</v>
+      </c>
+      <c r="E39">
+        <v>173</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>172</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>170</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>-28</v>
+      </c>
+      <c r="D43">
+        <v>0.3352</v>
+      </c>
+      <c r="E43">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>168</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>167</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>-60</v>
+      </c>
+      <c r="D47">
+        <v>0.15796</v>
+      </c>
+      <c r="E47">
+        <v>165</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>164</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>163</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>162</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>161</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>-177</v>
+      </c>
+      <c r="D52">
+        <v>0.05053</v>
+      </c>
+      <c r="E52">
+        <v>160</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>159</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>-30</v>
+      </c>
+      <c r="D54">
+        <v>0.3154</v>
+      </c>
+      <c r="E54">
+        <v>158</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>157</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>156</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>155</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>154</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>-3.5</v>
+      </c>
+      <c r="D59">
+        <v>2.663</v>
+      </c>
+      <c r="E59">
+        <v>153</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>-0.028</v>
+      </c>
+      <c r="D61">
+        <v>332.42</v>
+      </c>
+      <c r="E61">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D62">
+        <v>1.0721</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>12142</v>
+      </c>
+      <c r="D63">
+        <v>0.000771</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>49</v>
+      </c>
+      <c r="D64">
+        <v>0.19075</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>-1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>0.5323</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <v>-1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>103</v>
+      </c>
+      <c r="D66">
+        <v>0.09093999999999999</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66">
+        <v>-1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>484</v>
+      </c>
+      <c r="D67">
+        <v>0.019305</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>-1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>50.1</v>
+      </c>
+      <c r="D68">
+        <v>0.1854</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>-24</v>
+      </c>
+      <c r="D69">
+        <v>0.3915</v>
+      </c>
+      <c r="E69">
+        <v>173</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>172</v>
+      </c>
+      <c r="F70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>171</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>170</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>-28</v>
+      </c>
+      <c r="D73">
+        <v>0.3352</v>
+      </c>
+      <c r="E73">
+        <v>169</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>168</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>167</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>166</v>
+      </c>
+      <c r="F76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>-60</v>
+      </c>
+      <c r="D77">
+        <v>0.15796</v>
+      </c>
+      <c r="E77">
+        <v>165</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>164</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>163</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>162</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>161</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>-177</v>
+      </c>
+      <c r="D82">
+        <v>0.05053</v>
+      </c>
+      <c r="E82">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>159</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84">
+        <v>-30</v>
+      </c>
+      <c r="D84">
+        <v>0.3154</v>
+      </c>
+      <c r="E84">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>157</v>
+      </c>
+      <c r="F85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>156</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>155</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>154</v>
+      </c>
+      <c r="F88" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89">
+        <v>-3.5</v>
+      </c>
+      <c r="D89">
+        <v>2.663</v>
+      </c>
+      <c r="E89">
+        <v>153</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>152</v>
+      </c>
+      <c r="F90" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>-0.028</v>
+      </c>
+      <c r="D91">
+        <v>332.42</v>
+      </c>
+      <c r="E91">
+        <v>151</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D92">
+        <v>1.0721</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>-1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <v>12142</v>
+      </c>
+      <c r="D93">
+        <v>0.000771</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>-1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>49</v>
+      </c>
+      <c r="D94">
+        <v>0.19075</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>18</v>
+      </c>
+      <c r="D95">
+        <v>0.5323</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95">
+        <v>-1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>103</v>
+      </c>
+      <c r="D96">
+        <v>0.09093999999999999</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97">
+        <v>484</v>
+      </c>
+      <c r="D97">
+        <v>0.019305</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97">
+        <v>-1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98">
+        <v>50.1</v>
+      </c>
+      <c r="D98">
+        <v>0.1854</v>
+      </c>
+      <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>-24</v>
+      </c>
+      <c r="D99">
+        <v>0.3915</v>
+      </c>
+      <c r="E99">
+        <v>173</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>172</v>
+      </c>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>171</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>170</v>
+      </c>
+      <c r="F102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103">
+        <v>-28</v>
+      </c>
+      <c r="D103">
+        <v>0.3352</v>
+      </c>
+      <c r="E103">
+        <v>169</v>
+      </c>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>168</v>
+      </c>
+      <c r="F104" t="s">
+        <v>27</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>167</v>
+      </c>
+      <c r="F105" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>166</v>
+      </c>
+      <c r="F106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107">
+        <v>-60</v>
+      </c>
+      <c r="D107">
+        <v>0.15796</v>
+      </c>
+      <c r="E107">
+        <v>165</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>164</v>
+      </c>
+      <c r="F108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>163</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>162</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>161</v>
+      </c>
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>-177</v>
+      </c>
+      <c r="D112">
+        <v>0.05053</v>
+      </c>
+      <c r="E112">
+        <v>160</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>159</v>
+      </c>
+      <c r="F113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114">
+        <v>-30</v>
+      </c>
+      <c r="D114">
+        <v>0.3154</v>
+      </c>
+      <c r="E114">
+        <v>158</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>157</v>
+      </c>
+      <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>40</v>
+      </c>
+      <c r="I115" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116">
+        <v>156</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>155</v>
+      </c>
+      <c r="F117" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>154</v>
+      </c>
+      <c r="F118" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119">
+        <v>-3.5</v>
+      </c>
+      <c r="D119">
+        <v>2.663</v>
+      </c>
+      <c r="E119">
+        <v>153</v>
+      </c>
+      <c r="F119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>152</v>
+      </c>
+      <c r="F120" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>49</v>
+      </c>
+      <c r="I120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>-0.028</v>
+      </c>
+      <c r="D121">
+        <v>332.42</v>
+      </c>
+      <c r="E121">
+        <v>151</v>
+      </c>
+      <c r="F121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D122">
+        <v>1.0721</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122">
+        <v>-1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <v>12142</v>
+      </c>
+      <c r="D123">
+        <v>0.000771</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>-1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>49</v>
+      </c>
+      <c r="D124">
+        <v>0.19075</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124">
+        <v>-1</v>
+      </c>
+      <c r="I124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>18</v>
+      </c>
+      <c r="D125">
+        <v>0.5323</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125">
+        <v>-1</v>
+      </c>
+      <c r="I125" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>103</v>
+      </c>
+      <c r="D126">
+        <v>0.09093999999999999</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126">
+        <v>-1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127">
+        <v>484</v>
+      </c>
+      <c r="D127">
+        <v>0.019305</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127">
+        <v>-1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>50.1</v>
+      </c>
+      <c r="D128">
+        <v>0.1854</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128">
+        <v>-1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129">
+        <v>-24</v>
+      </c>
+      <c r="D129">
+        <v>0.3915</v>
+      </c>
+      <c r="E129">
+        <v>173</v>
+      </c>
+      <c r="F129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>172</v>
+      </c>
+      <c r="F130" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>40</v>
+      </c>
+      <c r="I130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>171</v>
+      </c>
+      <c r="F131" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>40</v>
+      </c>
+      <c r="I131" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>170</v>
+      </c>
+      <c r="F132" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>40</v>
+      </c>
+      <c r="I132" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133">
+        <v>-28</v>
+      </c>
+      <c r="D133">
+        <v>0.3352</v>
+      </c>
+      <c r="E133">
+        <v>169</v>
+      </c>
+      <c r="F133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="I133" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>168</v>
+      </c>
+      <c r="F134" t="s">
+        <v>27</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>40</v>
+      </c>
+      <c r="I134" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>167</v>
+      </c>
+      <c r="F135" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>41</v>
+      </c>
+      <c r="I135" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136">
+        <v>166</v>
+      </c>
+      <c r="F136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>40</v>
+      </c>
+      <c r="I136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137">
+        <v>-60</v>
+      </c>
+      <c r="D137">
+        <v>0.15796</v>
+      </c>
+      <c r="E137">
+        <v>165</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138">
+        <v>164</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>40</v>
+      </c>
+      <c r="I138" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>163</v>
+      </c>
+      <c r="F139" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>40</v>
+      </c>
+      <c r="I139" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>162</v>
+      </c>
+      <c r="F140" t="s">
+        <v>32</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>40</v>
+      </c>
+      <c r="I140" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141">
+        <v>161</v>
+      </c>
+      <c r="F141" t="s">
+        <v>33</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
+        <v>40</v>
+      </c>
+      <c r="I141" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142">
+        <v>-177</v>
+      </c>
+      <c r="D142">
+        <v>0.05053</v>
+      </c>
+      <c r="E142">
+        <v>160</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143">
+        <v>159</v>
+      </c>
+      <c r="F143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>50</v>
+      </c>
+      <c r="I143" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144">
+        <v>-30</v>
+      </c>
+      <c r="D144">
+        <v>0.3154</v>
+      </c>
+      <c r="E144">
+        <v>158</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145">
+        <v>157</v>
+      </c>
+      <c r="F145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
+        <v>40</v>
+      </c>
+      <c r="I145" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146">
+        <v>156</v>
+      </c>
+      <c r="F146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146" t="s">
+        <v>40</v>
+      </c>
+      <c r="I146" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147">
+        <v>155</v>
+      </c>
+      <c r="F147" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>41</v>
+      </c>
+      <c r="I147" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>154</v>
+      </c>
+      <c r="F148" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>40</v>
+      </c>
+      <c r="I148" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149">
+        <v>-3.5</v>
+      </c>
+      <c r="D149">
+        <v>2.663</v>
+      </c>
+      <c r="E149">
+        <v>153</v>
+      </c>
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150">
+        <v>152</v>
+      </c>
+      <c r="F150" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>51</v>
+      </c>
+      <c r="I150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151">
+        <v>-0.028</v>
+      </c>
+      <c r="D151">
+        <v>332.42</v>
+      </c>
+      <c r="E151">
+        <v>151</v>
+      </c>
+      <c r="F151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="I151" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D152">
+        <v>1.0721</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152">
+        <v>-1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>12142</v>
+      </c>
+      <c r="D153">
+        <v>0.000771</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153">
+        <v>-1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>49</v>
+      </c>
+      <c r="D154">
+        <v>0.19075</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154">
+        <v>-1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>18</v>
+      </c>
+      <c r="D155">
+        <v>0.5323</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155">
+        <v>-1</v>
+      </c>
+      <c r="I155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156">
+        <v>103</v>
+      </c>
+      <c r="D156">
+        <v>0.09093999999999999</v>
+      </c>
+      <c r="E156">
+        <v>5</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156">
+        <v>-1</v>
+      </c>
+      <c r="I156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157">
+        <v>484</v>
+      </c>
+      <c r="D157">
+        <v>0.019305</v>
+      </c>
+      <c r="E157">
+        <v>6</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157">
+        <v>-1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158">
+        <v>50.1</v>
+      </c>
+      <c r="D158">
+        <v>0.1854</v>
+      </c>
+      <c r="E158">
+        <v>7</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158">
+        <v>-1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159">
+        <v>-24</v>
+      </c>
+      <c r="D159">
+        <v>0.3915</v>
+      </c>
+      <c r="E159">
+        <v>173</v>
+      </c>
+      <c r="F159" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160">
+        <v>172</v>
+      </c>
+      <c r="F160" t="s">
+        <v>24</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160" t="s">
+        <v>40</v>
+      </c>
+      <c r="I160" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161">
+        <v>171</v>
+      </c>
+      <c r="F161" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>40</v>
+      </c>
+      <c r="I161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162">
+        <v>170</v>
+      </c>
+      <c r="F162" t="s">
+        <v>26</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162" t="s">
+        <v>40</v>
+      </c>
+      <c r="I162" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163">
+        <v>-28</v>
+      </c>
+      <c r="D163">
+        <v>0.3352</v>
+      </c>
+      <c r="E163">
+        <v>169</v>
+      </c>
+      <c r="F163" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>168</v>
+      </c>
+      <c r="F164" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>40</v>
+      </c>
+      <c r="I164" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165">
+        <v>167</v>
+      </c>
+      <c r="F165" t="s">
+        <v>28</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I165" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>166</v>
+      </c>
+      <c r="F166" t="s">
+        <v>29</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>40</v>
+      </c>
+      <c r="I166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167">
+        <v>-60</v>
+      </c>
+      <c r="D167">
+        <v>0.15796</v>
+      </c>
+      <c r="E167">
+        <v>165</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>164</v>
+      </c>
+      <c r="F168" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168" t="s">
+        <v>40</v>
+      </c>
+      <c r="I168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169">
+        <v>163</v>
+      </c>
+      <c r="F169" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169" t="s">
+        <v>40</v>
+      </c>
+      <c r="I169" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>162</v>
+      </c>
+      <c r="F170" t="s">
+        <v>32</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170" t="s">
+        <v>40</v>
+      </c>
+      <c r="I170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171">
+        <v>161</v>
+      </c>
+      <c r="F171" t="s">
+        <v>33</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171" t="s">
+        <v>40</v>
+      </c>
+      <c r="I171" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172">
+        <v>-177</v>
+      </c>
+      <c r="D172">
+        <v>0.05053</v>
+      </c>
+      <c r="E172">
+        <v>160</v>
+      </c>
+      <c r="F172" t="s">
+        <v>20</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>159</v>
+      </c>
+      <c r="F173" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173" t="s">
+        <v>52</v>
+      </c>
+      <c r="I173" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174">
+        <v>-30</v>
+      </c>
+      <c r="D174">
+        <v>0.3154</v>
+      </c>
+      <c r="E174">
+        <v>158</v>
+      </c>
+      <c r="F174" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="I174" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175">
+        <v>157</v>
+      </c>
+      <c r="F175" t="s">
+        <v>35</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>40</v>
+      </c>
+      <c r="I175" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>156</v>
+      </c>
+      <c r="F176" t="s">
+        <v>36</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>40</v>
+      </c>
+      <c r="I176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177">
+        <v>155</v>
+      </c>
+      <c r="F177" t="s">
+        <v>37</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177" t="s">
+        <v>41</v>
+      </c>
+      <c r="I177" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178">
+        <v>154</v>
+      </c>
+      <c r="F178" t="s">
+        <v>38</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178" t="s">
+        <v>40</v>
+      </c>
+      <c r="I178" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179">
+        <v>-3.5</v>
+      </c>
+      <c r="D179">
+        <v>2.663</v>
+      </c>
+      <c r="E179">
+        <v>153</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="I179" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180">
+        <v>152</v>
+      </c>
+      <c r="F180" t="s">
+        <v>39</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180" t="s">
+        <v>53</v>
+      </c>
+      <c r="I180" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181">
+        <v>-0.028</v>
+      </c>
+      <c r="D181">
+        <v>332.42</v>
+      </c>
+      <c r="E181">
+        <v>151</v>
+      </c>
+      <c r="F181" t="s">
+        <v>23</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="I181" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D182">
+        <v>1.0721</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182">
+        <v>-1</v>
+      </c>
+      <c r="I182" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183">
+        <v>12142</v>
+      </c>
+      <c r="D183">
+        <v>0.000771</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
+      <c r="G183">
+        <v>-1</v>
+      </c>
+      <c r="I183" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184">
+        <v>49</v>
+      </c>
+      <c r="D184">
+        <v>0.19075</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184">
+        <v>-1</v>
+      </c>
+      <c r="I184" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185">
+        <v>18</v>
+      </c>
+      <c r="D185">
+        <v>0.5323</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185">
+        <v>-1</v>
+      </c>
+      <c r="I185" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186">
+        <v>103</v>
+      </c>
+      <c r="D186">
+        <v>0.09093999999999999</v>
+      </c>
+      <c r="E186">
+        <v>5</v>
+      </c>
+      <c r="F186" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186">
+        <v>-1</v>
+      </c>
+      <c r="I186" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187">
+        <v>484</v>
+      </c>
+      <c r="D187">
+        <v>0.019305</v>
+      </c>
+      <c r="E187">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187">
+        <v>-1</v>
+      </c>
+      <c r="I187" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188">
+        <v>50.1</v>
+      </c>
+      <c r="D188">
+        <v>0.1854</v>
+      </c>
+      <c r="E188">
+        <v>7</v>
+      </c>
+      <c r="F188" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188">
+        <v>-1</v>
+      </c>
+      <c r="I188" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189">
+        <v>-24</v>
+      </c>
+      <c r="D189">
+        <v>0.3915</v>
+      </c>
+      <c r="E189">
+        <v>173</v>
+      </c>
+      <c r="F189" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="I189" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190">
+        <v>172</v>
+      </c>
+      <c r="F190" t="s">
+        <v>24</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190" t="s">
+        <v>40</v>
+      </c>
+      <c r="I190" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191">
+        <v>171</v>
+      </c>
+      <c r="F191" t="s">
+        <v>25</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191" t="s">
+        <v>40</v>
+      </c>
+      <c r="I191" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192">
+        <v>170</v>
+      </c>
+      <c r="F192" t="s">
+        <v>26</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192" t="s">
+        <v>40</v>
+      </c>
+      <c r="I192" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193">
+        <v>-28</v>
+      </c>
+      <c r="D193">
+        <v>0.3352</v>
+      </c>
+      <c r="E193">
+        <v>169</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="I193" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194">
+        <v>168</v>
+      </c>
+      <c r="F194" t="s">
+        <v>27</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194" t="s">
+        <v>40</v>
+      </c>
+      <c r="I194" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195">
+        <v>167</v>
+      </c>
+      <c r="F195" t="s">
+        <v>28</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195" t="s">
+        <v>41</v>
+      </c>
+      <c r="I195" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196">
+        <v>166</v>
+      </c>
+      <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196" t="s">
+        <v>40</v>
+      </c>
+      <c r="I196" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197">
+        <v>-60</v>
+      </c>
+      <c r="D197">
+        <v>0.15796</v>
+      </c>
+      <c r="E197">
+        <v>165</v>
+      </c>
+      <c r="F197" t="s">
+        <v>19</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="I197" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198">
+        <v>164</v>
+      </c>
+      <c r="F198" t="s">
+        <v>30</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198" t="s">
+        <v>40</v>
+      </c>
+      <c r="I198" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199">
+        <v>163</v>
+      </c>
+      <c r="F199" t="s">
+        <v>31</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199" t="s">
+        <v>40</v>
+      </c>
+      <c r="I199" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <v>162</v>
+      </c>
+      <c r="F200" t="s">
+        <v>32</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200" t="s">
+        <v>40</v>
+      </c>
+      <c r="I200" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201">
+        <v>161</v>
+      </c>
+      <c r="F201" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>40</v>
+      </c>
+      <c r="I201" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202">
+        <v>-177</v>
+      </c>
+      <c r="D202">
+        <v>0.05053</v>
+      </c>
+      <c r="E202">
+        <v>160</v>
+      </c>
+      <c r="F202" t="s">
+        <v>20</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203">
+        <v>159</v>
+      </c>
+      <c r="F203" t="s">
+        <v>34</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203" t="s">
+        <v>54</v>
+      </c>
+      <c r="I203" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204">
+        <v>-30</v>
+      </c>
+      <c r="D204">
+        <v>0.3154</v>
+      </c>
+      <c r="E204">
+        <v>158</v>
+      </c>
+      <c r="F204" t="s">
+        <v>21</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="I204" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205">
+        <v>157</v>
+      </c>
+      <c r="F205" t="s">
+        <v>35</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205" t="s">
+        <v>40</v>
+      </c>
+      <c r="I205" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206">
+        <v>156</v>
+      </c>
+      <c r="F206" t="s">
+        <v>36</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206" t="s">
+        <v>40</v>
+      </c>
+      <c r="I206" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207">
+        <v>155</v>
+      </c>
+      <c r="F207" t="s">
+        <v>37</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207" t="s">
+        <v>41</v>
+      </c>
+      <c r="I207" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208">
+        <v>154</v>
+      </c>
+      <c r="F208" t="s">
+        <v>38</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208" t="s">
+        <v>40</v>
+      </c>
+      <c r="I208" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209">
+        <v>-3.5</v>
+      </c>
+      <c r="D209">
+        <v>2.663</v>
+      </c>
+      <c r="E209">
+        <v>153</v>
+      </c>
+      <c r="F209" t="s">
+        <v>22</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210">
+        <v>152</v>
+      </c>
+      <c r="F210" t="s">
+        <v>39</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210" t="s">
+        <v>55</v>
+      </c>
+      <c r="I210" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211">
+        <v>-0.028</v>
+      </c>
+      <c r="D211">
+        <v>332.42</v>
+      </c>
+      <c r="E211">
+        <v>151</v>
+      </c>
+      <c r="F211" t="s">
+        <v>23</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="I211" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/position_analysis.xlsx
+++ b/data/position_analysis.xlsx
@@ -136,7 +136,7 @@
     <t>黑名单过滤</t>
   </si>
   <si>
-    <t>2025-06-03_171718</t>
+    <t>2025-06-03_174520</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
         <v>0.026</v>
       </c>
       <c r="D8">
-        <v>359.07</v>
+        <v>359.23</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -723,10 +723,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="D11">
-        <v>0.004208</v>
+        <v>0.004222</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>0.098</v>
+        <v>0.09854</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -778,7 +778,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0.7773</v>
+        <v>0.7826</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -804,7 +804,7 @@
         <v>34</v>
       </c>
       <c r="D14">
-        <v>0.27046</v>
+        <v>0.27107</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -827,10 +827,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>12508</v>
+        <v>12420</v>
       </c>
       <c r="D15">
-        <v>0.000741</v>
+        <v>0.000748</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -873,10 +873,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="D17">
-        <v>0.1881</v>
+        <v>0.1887</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -899,10 +899,10 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="D18">
-        <v>0.2929</v>
+        <v>0.2953</v>
       </c>
       <c r="E18">
         <v>173</v>
@@ -928,7 +928,7 @@
         <v>-1</v>
       </c>
       <c r="D19">
-        <v>9.313000000000001</v>
+        <v>9.282</v>
       </c>
       <c r="E19">
         <v>172</v>
@@ -951,10 +951,10 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.86</v>
+        <v>-0.85</v>
       </c>
       <c r="D20">
-        <v>10.809</v>
+        <v>10.844</v>
       </c>
       <c r="E20">
         <v>171</v>
@@ -997,10 +997,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-0.175</v>
+        <v>-0.174</v>
       </c>
       <c r="D22">
-        <v>53.1</v>
+        <v>53.21</v>
       </c>
       <c r="E22">
         <v>169</v>
@@ -1066,7 +1066,7 @@
         <v>-77</v>
       </c>
       <c r="D25">
-        <v>0.12047</v>
+        <v>0.12079</v>
       </c>
       <c r="E25">
         <v>166</v>
@@ -1089,10 +1089,10 @@
         <v>22</v>
       </c>
       <c r="C26">
-        <v>-67</v>
+        <v>-66</v>
       </c>
       <c r="D26">
-        <v>0.13913</v>
+        <v>0.13975</v>
       </c>
       <c r="E26">
         <v>165</v>
@@ -1138,7 +1138,7 @@
         <v>-48</v>
       </c>
       <c r="D28">
-        <v>0.19406</v>
+        <v>0.19457</v>
       </c>
       <c r="E28">
         <v>163</v>

--- a/data/position_analysis.xlsx
+++ b/data/position_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="54">
   <si>
     <t>调仓日期</t>
   </si>
@@ -43,100 +43,139 @@
     <t>Run_ID</t>
   </si>
   <si>
-    <t>2025-06-03</t>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>RLCUSDT</t>
+  </si>
+  <si>
+    <t>DENTUSDT</t>
+  </si>
+  <si>
+    <t>ONGUSDT</t>
+  </si>
+  <si>
+    <t>SFPUSDT</t>
+  </si>
+  <si>
+    <t>LRCUSDT</t>
+  </si>
+  <si>
+    <t>SUNUSDT</t>
+  </si>
+  <si>
+    <t>SXPUSDT</t>
+  </si>
+  <si>
+    <t>ARKUSDT</t>
+  </si>
+  <si>
+    <t>CTKUSDT</t>
+  </si>
+  <si>
+    <t>AERGOUSDT</t>
+  </si>
+  <si>
+    <t>DFUSDT</t>
+  </si>
+  <si>
+    <t>BELUSDT</t>
+  </si>
+  <si>
+    <t>FILUSDT</t>
   </si>
   <si>
     <t>XMRUSDT</t>
   </si>
   <si>
-    <t>CKBUSDT</t>
-  </si>
-  <si>
-    <t>GRTUSDT</t>
-  </si>
-  <si>
-    <t>STXUSDT</t>
-  </si>
-  <si>
-    <t>XLMUSDT</t>
-  </si>
-  <si>
-    <t>DENTUSDT</t>
-  </si>
-  <si>
-    <t>IOTAUSDT</t>
-  </si>
-  <si>
-    <t>BELUSDT</t>
-  </si>
-  <si>
-    <t>DEXEUSDT</t>
-  </si>
-  <si>
-    <t>AUCTIONUSDT</t>
-  </si>
-  <si>
-    <t>ZECUSDT</t>
-  </si>
-  <si>
-    <t>AERGOUSDT</t>
-  </si>
-  <si>
-    <t>STEEMUSDT</t>
-  </si>
-  <si>
-    <t>DOGEUSDT</t>
+    <t>FTTUSDT</t>
+  </si>
+  <si>
+    <t>XEMUSDT</t>
+  </si>
+  <si>
+    <t>STPTUSDT</t>
+  </si>
+  <si>
+    <t>BLZUSDT</t>
+  </si>
+  <si>
+    <t>BALUSDT</t>
+  </si>
+  <si>
+    <t>AMBUSDT</t>
+  </si>
+  <si>
+    <t>UNFIUSDT</t>
+  </si>
+  <si>
+    <t>FTMUSDT</t>
+  </si>
+  <si>
+    <t>STRAXUSDT</t>
+  </si>
+  <si>
+    <t>WAVESUSDT</t>
+  </si>
+  <si>
+    <t>BCHUSDT</t>
   </si>
   <si>
     <t>MDTUSDT</t>
   </si>
   <si>
-    <t>WAVESUSDT</t>
-  </si>
-  <si>
-    <t>STRAXUSDT</t>
-  </si>
-  <si>
-    <t>DGBUSDT</t>
-  </si>
-  <si>
     <t>SCUSDT</t>
   </si>
   <si>
-    <t>BTCUSDT</t>
+    <t>SNTUSDT</t>
   </si>
   <si>
     <t>RENUSDT</t>
   </si>
   <si>
-    <t>LINAUSDT</t>
-  </si>
-  <si>
-    <t>UNFIUSDT</t>
-  </si>
-  <si>
-    <t>OMGUSDT</t>
-  </si>
-  <si>
-    <t>XEMUSDT</t>
-  </si>
-  <si>
-    <t>FTTUSDT</t>
-  </si>
-  <si>
-    <t>AMBUSDT</t>
+    <t>LTCUSDT</t>
   </si>
   <si>
     <t>交易对不可交易</t>
   </si>
   <si>
-    <t>名义价值过低: 0.0 小于最小值 100.0</t>
-  </si>
-  <si>
     <t>黑名单过滤</t>
   </si>
   <si>
-    <t>2025-06-03_174520</t>
+    <t>名义价值过低: 9.32604 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.28957 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.321209999999999 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.277209999999998 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.33478 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.29575 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.372729999999999 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.23916 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>2025-06-04_172118</t>
+  </si>
+  <si>
+    <t>2025-06-04_172255</t>
+  </si>
+  <si>
+    <t>2025-06-04_172955</t>
+  </si>
+  <si>
+    <t>2025-06-04_174840</t>
   </si>
 </sst>
 </file>
@@ -494,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,120 +572,156 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1.0272</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>-1</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>12245</v>
+      </c>
+      <c r="D3">
+        <v>0.000748</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>-1</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>0.18814</v>
+      </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0.4934</v>
+      </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>0.08822000000000001</v>
+      </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>490</v>
+      </c>
+      <c r="D7">
+        <v>0.018855</v>
+      </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -654,45 +729,51 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.026</v>
+        <v>49.8</v>
       </c>
       <c r="D8">
-        <v>359.23</v>
+        <v>0.1856</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>-24</v>
+      </c>
+      <c r="D9">
+        <v>0.3817</v>
+      </c>
       <c r="E9">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -700,71 +781,59 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2198</v>
-      </c>
-      <c r="D11">
-        <v>0.004222</v>
-      </c>
       <c r="E11">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>94</v>
-      </c>
-      <c r="D12">
-        <v>0.09854</v>
-      </c>
       <c r="E12">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -772,77 +841,65 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>-28</v>
       </c>
       <c r="D13">
-        <v>0.7826</v>
+        <v>0.3252</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>34</v>
-      </c>
-      <c r="D14">
-        <v>0.27107</v>
-      </c>
       <c r="E14">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>12420</v>
-      </c>
-      <c r="D15">
-        <v>0.000748</v>
-      </c>
       <c r="E15">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -850,19 +907,19 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,103 +927,85 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>49.1</v>
+        <v>-76</v>
       </c>
       <c r="D17">
-        <v>0.1887</v>
+        <v>0.12079</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>-31</v>
-      </c>
-      <c r="D18">
-        <v>0.2953</v>
-      </c>
       <c r="E18">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>-1</v>
-      </c>
-      <c r="D19">
-        <v>9.282</v>
-      </c>
       <c r="E19">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>-0.85</v>
-      </c>
-      <c r="D20">
-        <v>10.844</v>
-      </c>
       <c r="E20">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
         <v>33</v>
@@ -983,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,13 +1036,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-0.174</v>
+        <v>-192</v>
       </c>
       <c r="D22">
-        <v>53.21</v>
+        <v>0.04773</v>
       </c>
       <c r="E22">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
@@ -1012,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1020,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -1029,82 +1068,76 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>9</v>
       </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>-31</v>
+      </c>
+      <c r="D24">
+        <v>0.2953</v>
+      </c>
       <c r="E24">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>-77</v>
-      </c>
-      <c r="D25">
-        <v>0.12079</v>
-      </c>
       <c r="E25">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>-66</v>
-      </c>
-      <c r="D26">
-        <v>0.13975</v>
-      </c>
       <c r="E26">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1112,45 +1145,2163 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28">
+        <v>154</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>-3.5</v>
+      </c>
+      <c r="D29">
+        <v>2.655</v>
+      </c>
+      <c r="E29">
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>152</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="C28">
-        <v>-48</v>
-      </c>
-      <c r="D28">
-        <v>0.19457</v>
-      </c>
-      <c r="E28">
+      <c r="C31">
+        <v>-0.026</v>
+      </c>
+      <c r="D31">
+        <v>348.46</v>
+      </c>
+      <c r="E31">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>1.0272</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>12245</v>
+      </c>
+      <c r="D33">
+        <v>0.000748</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>0.18814</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>0.4934</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>104</v>
+      </c>
+      <c r="D36">
+        <v>0.08822000000000001</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>490</v>
+      </c>
+      <c r="D37">
+        <v>0.018855</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>49.8</v>
+      </c>
+      <c r="D38">
+        <v>0.1856</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>-24</v>
+      </c>
+      <c r="D39">
+        <v>0.3817</v>
+      </c>
+      <c r="E39">
+        <v>173</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>172</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>170</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>-28</v>
+      </c>
+      <c r="D43">
+        <v>0.3252</v>
+      </c>
+      <c r="E43">
+        <v>169</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>168</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>167</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>-76</v>
+      </c>
+      <c r="D47">
+        <v>0.12079</v>
+      </c>
+      <c r="E47">
+        <v>165</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>164</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49">
         <v>163</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>162</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>161</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>-192</v>
+      </c>
+      <c r="D52">
+        <v>0.04773</v>
+      </c>
+      <c r="E52">
+        <v>160</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>159</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>-31</v>
+      </c>
+      <c r="D54">
+        <v>0.2953</v>
+      </c>
+      <c r="E54">
+        <v>158</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>157</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>156</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>155</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>154</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>-3.5</v>
+      </c>
+      <c r="D59">
+        <v>2.655</v>
+      </c>
+      <c r="E59">
+        <v>153</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
         <v>23</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>40</v>
+      <c r="C61">
+        <v>-0.026</v>
+      </c>
+      <c r="D61">
+        <v>348.46</v>
+      </c>
+      <c r="E61">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>1.0272</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>12245</v>
+      </c>
+      <c r="D63">
+        <v>0.000748</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>49</v>
+      </c>
+      <c r="D64">
+        <v>0.18814</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>-1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>19</v>
+      </c>
+      <c r="D65">
+        <v>0.4934</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <v>-1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>104</v>
+      </c>
+      <c r="D66">
+        <v>0.08822000000000001</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66">
+        <v>-1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>490</v>
+      </c>
+      <c r="D67">
+        <v>0.018855</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>-1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>49.8</v>
+      </c>
+      <c r="D68">
+        <v>0.1856</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>-24</v>
+      </c>
+      <c r="D69">
+        <v>0.3817</v>
+      </c>
+      <c r="E69">
+        <v>173</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>172</v>
+      </c>
+      <c r="F70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>171</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>170</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>-28</v>
+      </c>
+      <c r="D73">
+        <v>0.3252</v>
+      </c>
+      <c r="E73">
+        <v>169</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>168</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>167</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>166</v>
+      </c>
+      <c r="F76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>-76</v>
+      </c>
+      <c r="D77">
+        <v>0.12079</v>
+      </c>
+      <c r="E77">
+        <v>165</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>164</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>163</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>162</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>161</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>-192</v>
+      </c>
+      <c r="D82">
+        <v>0.04773</v>
+      </c>
+      <c r="E82">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>159</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84">
+        <v>-31</v>
+      </c>
+      <c r="D84">
+        <v>0.2953</v>
+      </c>
+      <c r="E84">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>157</v>
+      </c>
+      <c r="F85" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>156</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>155</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>154</v>
+      </c>
+      <c r="F88" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89">
+        <v>-3.5</v>
+      </c>
+      <c r="D89">
+        <v>2.655</v>
+      </c>
+      <c r="E89">
+        <v>153</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>152</v>
+      </c>
+      <c r="F90" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>-0.026</v>
+      </c>
+      <c r="D91">
+        <v>348.46</v>
+      </c>
+      <c r="E91">
+        <v>151</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>1.0272</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>-1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <v>12245</v>
+      </c>
+      <c r="D93">
+        <v>0.000748</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93">
+        <v>-1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>49</v>
+      </c>
+      <c r="D94">
+        <v>0.18814</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>0.4934</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95">
+        <v>-1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>104</v>
+      </c>
+      <c r="D96">
+        <v>0.08822000000000001</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97">
+        <v>490</v>
+      </c>
+      <c r="D97">
+        <v>0.018855</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97">
+        <v>-1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98">
+        <v>49.8</v>
+      </c>
+      <c r="D98">
+        <v>0.1856</v>
+      </c>
+      <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>-24</v>
+      </c>
+      <c r="D99">
+        <v>0.3817</v>
+      </c>
+      <c r="E99">
+        <v>173</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>172</v>
+      </c>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>171</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>170</v>
+      </c>
+      <c r="F102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103">
+        <v>-28</v>
+      </c>
+      <c r="D103">
+        <v>0.3252</v>
+      </c>
+      <c r="E103">
+        <v>169</v>
+      </c>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>168</v>
+      </c>
+      <c r="F104" t="s">
+        <v>27</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>167</v>
+      </c>
+      <c r="F105" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>166</v>
+      </c>
+      <c r="F106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107">
+        <v>-76</v>
+      </c>
+      <c r="D107">
+        <v>0.12079</v>
+      </c>
+      <c r="E107">
+        <v>165</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>164</v>
+      </c>
+      <c r="F108" t="s">
+        <v>30</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>40</v>
+      </c>
+      <c r="I108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>163</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>162</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>161</v>
+      </c>
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>-192</v>
+      </c>
+      <c r="D112">
+        <v>0.04773</v>
+      </c>
+      <c r="E112">
+        <v>160</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>159</v>
+      </c>
+      <c r="F113" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114">
+        <v>-31</v>
+      </c>
+      <c r="D114">
+        <v>0.2953</v>
+      </c>
+      <c r="E114">
+        <v>158</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>157</v>
+      </c>
+      <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>40</v>
+      </c>
+      <c r="I115" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116">
+        <v>156</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>155</v>
+      </c>
+      <c r="F117" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I117" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>154</v>
+      </c>
+      <c r="F118" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119">
+        <v>-3.5</v>
+      </c>
+      <c r="D119">
+        <v>2.655</v>
+      </c>
+      <c r="E119">
+        <v>153</v>
+      </c>
+      <c r="F119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>152</v>
+      </c>
+      <c r="F120" t="s">
+        <v>39</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>49</v>
+      </c>
+      <c r="I120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>-0.026</v>
+      </c>
+      <c r="D121">
+        <v>348.46</v>
+      </c>
+      <c r="E121">
+        <v>151</v>
+      </c>
+      <c r="F121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/position_analysis.xlsx
+++ b/data/position_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="62">
   <si>
     <t>调仓日期</t>
   </si>
@@ -43,15 +43,54 @@
     <t>Run_ID</t>
   </si>
   <si>
-    <t>2025-06-04</t>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>XMRUSDT</t>
+  </si>
+  <si>
+    <t>CKBUSDT</t>
+  </si>
+  <si>
+    <t>GRTUSDT</t>
+  </si>
+  <si>
+    <t>STXUSDT</t>
+  </si>
+  <si>
+    <t>XLMUSDT</t>
+  </si>
+  <si>
+    <t>DENTUSDT</t>
+  </si>
+  <si>
+    <t>IOTAUSDT</t>
+  </si>
+  <si>
+    <t>BELUSDT</t>
+  </si>
+  <si>
+    <t>DEXEUSDT</t>
+  </si>
+  <si>
+    <t>AUCTIONUSDT</t>
+  </si>
+  <si>
+    <t>ZECUSDT</t>
+  </si>
+  <si>
+    <t>AERGOUSDT</t>
+  </si>
+  <si>
+    <t>STEEMUSDT</t>
+  </si>
+  <si>
+    <t>DOGEUSDT</t>
   </si>
   <si>
     <t>RLCUSDT</t>
   </si>
   <si>
-    <t>DENTUSDT</t>
-  </si>
-  <si>
     <t>ONGUSDT</t>
   </si>
   <si>
@@ -73,25 +112,49 @@
     <t>CTKUSDT</t>
   </si>
   <si>
-    <t>AERGOUSDT</t>
-  </si>
-  <si>
     <t>DFUSDT</t>
   </si>
   <si>
-    <t>BELUSDT</t>
-  </si>
-  <si>
     <t>FILUSDT</t>
   </si>
   <si>
-    <t>XMRUSDT</t>
+    <t>MDTUSDT</t>
+  </si>
+  <si>
+    <t>WAVESUSDT</t>
+  </si>
+  <si>
+    <t>STRAXUSDT</t>
+  </si>
+  <si>
+    <t>DGBUSDT</t>
+  </si>
+  <si>
+    <t>SCUSDT</t>
+  </si>
+  <si>
+    <t>BTCUSDT</t>
+  </si>
+  <si>
+    <t>RENUSDT</t>
+  </si>
+  <si>
+    <t>LINAUSDT</t>
+  </si>
+  <si>
+    <t>UNFIUSDT</t>
+  </si>
+  <si>
+    <t>OMGUSDT</t>
+  </si>
+  <si>
+    <t>XEMUSDT</t>
   </si>
   <si>
     <t>FTTUSDT</t>
   </si>
   <si>
-    <t>XEMUSDT</t>
+    <t>AMBUSDT</t>
   </si>
   <si>
     <t>STPTUSDT</t>
@@ -103,79 +166,40 @@
     <t>BALUSDT</t>
   </si>
   <si>
-    <t>AMBUSDT</t>
-  </si>
-  <si>
-    <t>UNFIUSDT</t>
-  </si>
-  <si>
     <t>FTMUSDT</t>
   </si>
   <si>
-    <t>STRAXUSDT</t>
-  </si>
-  <si>
-    <t>WAVESUSDT</t>
-  </si>
-  <si>
     <t>BCHUSDT</t>
   </si>
   <si>
-    <t>MDTUSDT</t>
-  </si>
-  <si>
-    <t>SCUSDT</t>
-  </si>
-  <si>
     <t>SNTUSDT</t>
   </si>
   <si>
-    <t>RENUSDT</t>
-  </si>
-  <si>
     <t>LTCUSDT</t>
   </si>
   <si>
     <t>交易对不可交易</t>
   </si>
   <si>
+    <t>名义价值过低: 0.0 小于最小值 100.0</t>
+  </si>
+  <si>
     <t>黑名单过滤</t>
   </si>
   <si>
-    <t>名义价值过低: 9.32604 小于最小值 20.0</t>
-  </si>
-  <si>
-    <t>名义价值过低: 9.28957 小于最小值 20.0</t>
-  </si>
-  <si>
-    <t>名义价值过低: 9.321209999999999 小于最小值 20.0</t>
-  </si>
-  <si>
-    <t>名义价值过低: 9.277209999999998 小于最小值 20.0</t>
-  </si>
-  <si>
-    <t>名义价值过低: 9.33478 小于最小值 20.0</t>
-  </si>
-  <si>
-    <t>名义价值过低: 9.29575 小于最小值 20.0</t>
-  </si>
-  <si>
-    <t>名义价值过低: 9.372729999999999 小于最小值 20.0</t>
-  </si>
-  <si>
-    <t>名义价值过低: 9.23916 小于最小值 20.0</t>
-  </si>
-  <si>
-    <t>2025-06-04_172118</t>
-  </si>
-  <si>
-    <t>2025-06-04_172255</t>
-  </si>
-  <si>
-    <t>2025-06-04_172955</t>
-  </si>
-  <si>
-    <t>2025-06-04_174840</t>
+    <t>名义价值过低: 9.57432 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>名义价值过低: 9.6503 小于最小值 20.0</t>
+  </si>
+  <si>
+    <t>2025-06-05_163030</t>
+  </si>
+  <si>
+    <t>2025-06-05_163917</t>
+  </si>
+  <si>
+    <t>2025-06-05_164152</t>
   </si>
 </sst>
 </file>
@@ -533,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,156 +596,120 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>1.0272</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>-1</v>
       </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>12245</v>
-      </c>
-      <c r="D3">
-        <v>0.000748</v>
-      </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>-1</v>
       </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>49</v>
-      </c>
-      <c r="D4">
-        <v>0.18814</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>-1</v>
       </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>0.4934</v>
-      </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>-1</v>
       </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>104</v>
-      </c>
-      <c r="D6">
-        <v>0.08822000000000001</v>
-      </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>-1</v>
       </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>490</v>
-      </c>
-      <c r="D7">
-        <v>0.018855</v>
-      </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>-1</v>
       </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -729,51 +717,45 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>49.8</v>
+        <v>0.03</v>
       </c>
       <c r="D8">
-        <v>0.1856</v>
+        <v>318.76</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>-24</v>
-      </c>
-      <c r="D9">
-        <v>0.3817</v>
-      </c>
       <c r="E9">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,59 +763,71 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2331</v>
+      </c>
+      <c r="D11">
+        <v>0.00412</v>
+      </c>
       <c r="E11">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>101</v>
+      </c>
+      <c r="D12">
+        <v>0.09421</v>
+      </c>
       <c r="E12">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -841,65 +835,77 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>-28</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>0.3252</v>
+        <v>0.7472</v>
       </c>
       <c r="E13">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>0.26667</v>
+      </c>
       <c r="E14">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>9</v>
       </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>12245</v>
+      </c>
+      <c r="D15">
+        <v>0.000748</v>
+      </c>
       <c r="E15">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -907,19 +913,19 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -927,85 +933,103 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>-76</v>
+        <v>52.5</v>
       </c>
       <c r="D17">
-        <v>0.12079</v>
+        <v>0.1817</v>
       </c>
       <c r="E17">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>9</v>
       </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>-31</v>
+      </c>
+      <c r="D18">
+        <v>0.2953</v>
+      </c>
       <c r="E18">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>9</v>
       </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>-0.97</v>
+      </c>
+      <c r="D19">
+        <v>9.714</v>
+      </c>
       <c r="E19">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
-        <v>40</v>
-      </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>9</v>
       </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>-0.9</v>
+      </c>
+      <c r="D20">
+        <v>10.623</v>
+      </c>
       <c r="E20">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1013,19 +1037,19 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1036,13 +1060,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-192</v>
+        <v>-0.191</v>
       </c>
       <c r="D22">
-        <v>0.04773</v>
+        <v>50.06</v>
       </c>
       <c r="E22">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
@@ -1051,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1059,85 +1083,91 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <v>-31</v>
-      </c>
-      <c r="D24">
-        <v>0.2953</v>
-      </c>
       <c r="E24">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>9</v>
       </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>-70</v>
+      </c>
+      <c r="D25">
+        <v>0.12079</v>
+      </c>
       <c r="E25">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>9</v>
       </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>-70</v>
+      </c>
+      <c r="D26">
+        <v>0.13607</v>
+      </c>
       <c r="E26">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1145,65 +1175,65 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>9</v>
       </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>-50</v>
+      </c>
+      <c r="D28">
+        <v>0.1886</v>
+      </c>
       <c r="E28">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29">
-        <v>-3.5</v>
-      </c>
-      <c r="D29">
-        <v>2.655</v>
-      </c>
       <c r="E29">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1211,123 +1241,99 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <v>-0.026</v>
-      </c>
-      <c r="D31">
-        <v>348.46</v>
-      </c>
       <c r="E31">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>54</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>1.0272</v>
-      </c>
       <c r="E32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>-1</v>
       </c>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>12245</v>
-      </c>
-      <c r="D33">
-        <v>0.000748</v>
-      </c>
       <c r="E33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>-1</v>
       </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>49</v>
-      </c>
-      <c r="D34">
-        <v>0.18814</v>
-      </c>
       <c r="E34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>-1</v>
       </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1335,77 +1341,65 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>0.029</v>
       </c>
       <c r="D35">
-        <v>0.4934</v>
+        <v>333.05</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>-1</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36">
-        <v>104</v>
-      </c>
-      <c r="D36">
-        <v>0.08822000000000001</v>
-      </c>
       <c r="E36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>-1</v>
       </c>
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37">
-        <v>490</v>
-      </c>
-      <c r="D37">
-        <v>0.018855</v>
-      </c>
       <c r="E37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>-1</v>
       </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1413,25 +1407,25 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>49.8</v>
+        <v>2331</v>
       </c>
       <c r="D38">
-        <v>0.1856</v>
+        <v>0.00412</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <v>-1</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1439,171 +1433,201 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>-24</v>
+        <v>101</v>
       </c>
       <c r="D39">
-        <v>0.3817</v>
+        <v>0.09421</v>
       </c>
       <c r="E39">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>9</v>
       </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>0.7472</v>
+      </c>
       <c r="E40">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>9</v>
       </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>0.26667</v>
+      </c>
       <c r="E41">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>9</v>
       </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>12245</v>
+      </c>
+      <c r="D42">
+        <v>0.000748</v>
+      </c>
       <c r="E42">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43">
-        <v>-28</v>
-      </c>
-      <c r="D43">
-        <v>0.3252</v>
-      </c>
       <c r="E43">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>9</v>
       </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>52.5</v>
+      </c>
+      <c r="D44">
+        <v>0.1817</v>
+      </c>
       <c r="E44">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>9</v>
       </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>-31</v>
+      </c>
+      <c r="D45">
+        <v>0.2953</v>
+      </c>
       <c r="E45">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" t="s">
-        <v>41</v>
-      </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>9</v>
       </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>-0.97</v>
+      </c>
+      <c r="D46">
+        <v>9.714</v>
+      </c>
       <c r="E46">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
-        <v>40</v>
-      </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1614,13 +1638,13 @@
         <v>19</v>
       </c>
       <c r="C47">
-        <v>-76</v>
+        <v>-0.9</v>
       </c>
       <c r="D47">
-        <v>0.12079</v>
+        <v>10.623</v>
       </c>
       <c r="E47">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -1629,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1637,39 +1661,45 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>9</v>
       </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>-0.191</v>
+      </c>
+      <c r="D49">
+        <v>50.06</v>
+      </c>
       <c r="E49">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" t="s">
-        <v>40</v>
-      </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1677,19 +1707,19 @@
         <v>9</v>
       </c>
       <c r="E50">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1697,19 +1727,19 @@
         <v>9</v>
       </c>
       <c r="E51">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1717,151 +1747,175 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>-192</v>
+        <v>-70</v>
       </c>
       <c r="D52">
-        <v>0.04773</v>
+        <v>0.12079</v>
       </c>
       <c r="E52">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>9</v>
       </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>-70</v>
+      </c>
+      <c r="D53">
+        <v>0.13607</v>
+      </c>
       <c r="E53">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" t="s">
-        <v>44</v>
-      </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54">
-        <v>-31</v>
-      </c>
-      <c r="D54">
-        <v>0.2953</v>
-      </c>
       <c r="E54">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
+      <c r="H54" t="s">
+        <v>54</v>
+      </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>9</v>
       </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>-50</v>
+      </c>
+      <c r="D55">
+        <v>0.1886</v>
+      </c>
       <c r="E55">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" t="s">
-        <v>40</v>
-      </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>9</v>
       </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D56">
+        <v>1.0537</v>
+      </c>
       <c r="E56">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>9</v>
       </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>12245</v>
+      </c>
+      <c r="D57">
+        <v>0.000748</v>
+      </c>
       <c r="E57">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>9</v>
       </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>53</v>
+      </c>
+      <c r="D58">
+        <v>0.18056</v>
+      </c>
       <c r="E58">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -1869,45 +1923,51 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C59">
-        <v>-3.5</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>2.655</v>
+        <v>0.4769</v>
       </c>
       <c r="E59">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>9</v>
       </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>110</v>
+      </c>
+      <c r="D60">
+        <v>0.0881</v>
+      </c>
       <c r="E60">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>45</v>
+        <v>-1</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -1915,25 +1975,25 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C61">
-        <v>-0.026</v>
+        <v>500</v>
       </c>
       <c r="D61">
-        <v>348.46</v>
+        <v>0.019274</v>
       </c>
       <c r="E61">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -1941,25 +2001,25 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>54.1</v>
       </c>
       <c r="D62">
-        <v>1.0272</v>
+        <v>0.1784</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G62">
         <v>-1</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -1967,103 +2027,85 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C63">
-        <v>12245</v>
+        <v>-26</v>
       </c>
       <c r="D63">
-        <v>0.000748</v>
+        <v>0.3698</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>9</v>
       </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64">
-        <v>49</v>
-      </c>
-      <c r="D64">
-        <v>0.18814</v>
-      </c>
       <c r="E64">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G64">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>54</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>9</v>
       </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65">
-        <v>19</v>
-      </c>
-      <c r="D65">
-        <v>0.4934</v>
-      </c>
       <c r="E65">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G65">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>54</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>9</v>
       </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66">
-        <v>104</v>
-      </c>
-      <c r="D66">
-        <v>0.08822000000000001</v>
-      </c>
       <c r="E66">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G66">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>54</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2071,77 +2113,65 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C67">
-        <v>490</v>
+        <v>-32</v>
       </c>
       <c r="D67">
-        <v>0.018855</v>
+        <v>0.3029</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>9</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68">
-        <v>49.8</v>
-      </c>
-      <c r="D68">
-        <v>0.1856</v>
-      </c>
       <c r="E68">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G68">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>54</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>9</v>
       </c>
-      <c r="B69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69">
-        <v>-24</v>
-      </c>
-      <c r="D69">
-        <v>0.3817</v>
-      </c>
       <c r="E69">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
+      <c r="H69" t="s">
+        <v>56</v>
+      </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2149,39 +2179,45 @@
         <v>9</v>
       </c>
       <c r="E70">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>9</v>
       </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>-70</v>
+      </c>
+      <c r="D71">
+        <v>0.12079</v>
+      </c>
       <c r="E71">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="H71" t="s">
-        <v>40</v>
-      </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2189,45 +2225,39 @@
         <v>9</v>
       </c>
       <c r="E72">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>9</v>
       </c>
-      <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73">
-        <v>-28</v>
-      </c>
-      <c r="D73">
-        <v>0.3252</v>
-      </c>
       <c r="E73">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
+      <c r="H73" t="s">
+        <v>54</v>
+      </c>
       <c r="I73" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2235,19 +2265,19 @@
         <v>9</v>
       </c>
       <c r="E74">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I74" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2255,85 +2285,91 @@
         <v>9</v>
       </c>
       <c r="E75">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>9</v>
       </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76">
+        <v>-228</v>
+      </c>
+      <c r="D76">
+        <v>0.04244</v>
+      </c>
       <c r="E76">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76" t="s">
-        <v>40</v>
-      </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>9</v>
       </c>
-      <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77">
-        <v>-76</v>
-      </c>
-      <c r="D77">
-        <v>0.12079</v>
-      </c>
       <c r="E77">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
+      <c r="H77" t="s">
+        <v>57</v>
+      </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>9</v>
       </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>-31</v>
+      </c>
+      <c r="D78">
+        <v>0.2953</v>
+      </c>
       <c r="E78">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="H78" t="s">
-        <v>40</v>
-      </c>
       <c r="I78" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2341,19 +2377,19 @@
         <v>9</v>
       </c>
       <c r="E79">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2361,19 +2397,19 @@
         <v>9</v>
       </c>
       <c r="E80">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2381,927 +2417,111 @@
         <v>9</v>
       </c>
       <c r="E81">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>9</v>
       </c>
-      <c r="B82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82">
-        <v>-192</v>
-      </c>
-      <c r="D82">
-        <v>0.04773</v>
-      </c>
       <c r="E82">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
+      <c r="H82" t="s">
+        <v>54</v>
+      </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>9</v>
       </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83">
+        <v>-3.8</v>
+      </c>
+      <c r="D83">
+        <v>2.551</v>
+      </c>
       <c r="E83">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
-      <c r="H83" t="s">
-        <v>46</v>
-      </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>9</v>
       </c>
-      <c r="B84" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84">
-        <v>-31</v>
-      </c>
-      <c r="D84">
-        <v>0.2953</v>
-      </c>
       <c r="E84">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
+      <c r="H84" t="s">
+        <v>58</v>
+      </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>9</v>
       </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>-0.029</v>
+      </c>
+      <c r="D85">
+        <v>331.4</v>
+      </c>
       <c r="E85">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="H85" t="s">
-        <v>40</v>
-      </c>
       <c r="I85" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86">
-        <v>156</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87">
-        <v>155</v>
-      </c>
-      <c r="F87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>41</v>
-      </c>
-      <c r="I87" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88">
-        <v>154</v>
-      </c>
-      <c r="F88" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89">
-        <v>-3.5</v>
-      </c>
-      <c r="D89">
-        <v>2.655</v>
-      </c>
-      <c r="E89">
-        <v>153</v>
-      </c>
-      <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="I89" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90">
-        <v>152</v>
-      </c>
-      <c r="F90" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>47</v>
-      </c>
-      <c r="I90" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91">
-        <v>-0.026</v>
-      </c>
-      <c r="D91">
-        <v>348.46</v>
-      </c>
-      <c r="E91">
-        <v>151</v>
-      </c>
-      <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="I91" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92">
-        <v>9</v>
-      </c>
-      <c r="D92">
-        <v>1.0272</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92">
-        <v>-1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93">
-        <v>12245</v>
-      </c>
-      <c r="D93">
-        <v>0.000748</v>
-      </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93">
-        <v>-1</v>
-      </c>
-      <c r="I93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94">
-        <v>49</v>
-      </c>
-      <c r="D94">
-        <v>0.18814</v>
-      </c>
-      <c r="E94">
-        <v>3</v>
-      </c>
-      <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94">
-        <v>-1</v>
-      </c>
-      <c r="I94" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95">
-        <v>19</v>
-      </c>
-      <c r="D95">
-        <v>0.4934</v>
-      </c>
-      <c r="E95">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95">
-        <v>-1</v>
-      </c>
-      <c r="I95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96">
-        <v>104</v>
-      </c>
-      <c r="D96">
-        <v>0.08822000000000001</v>
-      </c>
-      <c r="E96">
-        <v>5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96">
-        <v>-1</v>
-      </c>
-      <c r="I96" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97">
-        <v>490</v>
-      </c>
-      <c r="D97">
-        <v>0.018855</v>
-      </c>
-      <c r="E97">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97">
-        <v>-1</v>
-      </c>
-      <c r="I97" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98">
-        <v>49.8</v>
-      </c>
-      <c r="D98">
-        <v>0.1856</v>
-      </c>
-      <c r="E98">
-        <v>7</v>
-      </c>
-      <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98">
-        <v>-1</v>
-      </c>
-      <c r="I98" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99">
-        <v>-24</v>
-      </c>
-      <c r="D99">
-        <v>0.3817</v>
-      </c>
-      <c r="E99">
-        <v>173</v>
-      </c>
-      <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="I99" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100">
-        <v>172</v>
-      </c>
-      <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>40</v>
-      </c>
-      <c r="I100" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101">
-        <v>171</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>40</v>
-      </c>
-      <c r="I101" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102">
-        <v>170</v>
-      </c>
-      <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
-        <v>40</v>
-      </c>
-      <c r="I102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103">
-        <v>-28</v>
-      </c>
-      <c r="D103">
-        <v>0.3252</v>
-      </c>
-      <c r="E103">
-        <v>169</v>
-      </c>
-      <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="I103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104">
-        <v>168</v>
-      </c>
-      <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>40</v>
-      </c>
-      <c r="I104" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105">
-        <v>167</v>
-      </c>
-      <c r="F105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>41</v>
-      </c>
-      <c r="I105" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106">
-        <v>166</v>
-      </c>
-      <c r="F106" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>40</v>
-      </c>
-      <c r="I106" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107">
-        <v>-76</v>
-      </c>
-      <c r="D107">
-        <v>0.12079</v>
-      </c>
-      <c r="E107">
-        <v>165</v>
-      </c>
-      <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="I107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108">
-        <v>164</v>
-      </c>
-      <c r="F108" t="s">
-        <v>30</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>40</v>
-      </c>
-      <c r="I108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109">
-        <v>163</v>
-      </c>
-      <c r="F109" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>40</v>
-      </c>
-      <c r="I109" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110">
-        <v>162</v>
-      </c>
-      <c r="F110" t="s">
-        <v>32</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
-        <v>40</v>
-      </c>
-      <c r="I110" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111">
-        <v>161</v>
-      </c>
-      <c r="F111" t="s">
-        <v>33</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
-        <v>40</v>
-      </c>
-      <c r="I111" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112">
-        <v>-192</v>
-      </c>
-      <c r="D112">
-        <v>0.04773</v>
-      </c>
-      <c r="E112">
-        <v>160</v>
-      </c>
-      <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="I112" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113">
-        <v>159</v>
-      </c>
-      <c r="F113" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
-        <v>48</v>
-      </c>
-      <c r="I113" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114">
-        <v>-31</v>
-      </c>
-      <c r="D114">
-        <v>0.2953</v>
-      </c>
-      <c r="E114">
-        <v>158</v>
-      </c>
-      <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="I114" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115">
-        <v>157</v>
-      </c>
-      <c r="F115" t="s">
-        <v>35</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
-        <v>40</v>
-      </c>
-      <c r="I115" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116">
-        <v>156</v>
-      </c>
-      <c r="F116" t="s">
-        <v>36</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
-        <v>40</v>
-      </c>
-      <c r="I116" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117">
-        <v>155</v>
-      </c>
-      <c r="F117" t="s">
-        <v>37</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117" t="s">
-        <v>41</v>
-      </c>
-      <c r="I117" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118">
-        <v>154</v>
-      </c>
-      <c r="F118" t="s">
-        <v>38</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118" t="s">
-        <v>40</v>
-      </c>
-      <c r="I118" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119">
-        <v>-3.5</v>
-      </c>
-      <c r="D119">
-        <v>2.655</v>
-      </c>
-      <c r="E119">
-        <v>153</v>
-      </c>
-      <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="I119" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120">
-        <v>152</v>
-      </c>
-      <c r="F120" t="s">
-        <v>39</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120" t="s">
-        <v>49</v>
-      </c>
-      <c r="I120" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121">
-        <v>-0.026</v>
-      </c>
-      <c r="D121">
-        <v>348.46</v>
-      </c>
-      <c r="E121">
-        <v>151</v>
-      </c>
-      <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="I121" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
